--- a/数据整理/stocks/A股/科创板/688261-东微半导.xlsx
+++ b/数据整理/stocks/A股/科创板/688261-东微半导.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,329 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688261-东微半导.xlsx
+++ b/数据整理/stocks/A股/科创板/688261-东微半导.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,129 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2027</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1365</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -904,64 +840,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.1</v>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688261-东微半导.xlsx
+++ b/数据整理/stocks/A股/科创板/688261-东微半导.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -515,6 +532,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -834,7 +1819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688261-东微半导.xlsx
+++ b/数据整理/stocks/A股/科创板/688261-东微半导.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>5.02</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -532,6 +549,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016238</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016237</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1499,7 +2636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1819,7 +2956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
